--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1AD48-CDF7-4834-BE3C-F89B3D549CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9C9DC-0BF0-4393-AC5D-82E646BE5336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>43094942</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>4/4 R</t>
+  </si>
+  <si>
+    <t>disponible</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +351,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +400,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,9 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F5ACE-7E2D-40C0-88FD-739125C9D6BE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -744,7 +756,7 @@
     <col min="11" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -760,8 +772,11 @@
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -777,8 +792,11 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
@@ -794,8 +812,11 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -811,8 +832,11 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
@@ -828,8 +852,11 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
@@ -845,8 +872,11 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
@@ -862,8 +892,11 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -879,8 +912,11 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -896,8 +932,11 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -913,8 +952,11 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -930,8 +972,11 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -947,8 +992,11 @@
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -964,8 +1012,11 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -981,8 +1032,11 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -998,8 +1052,11 @@
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1015,8 +1072,11 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1032,8 +1092,11 @@
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -1049,8 +1112,11 @@
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1066,8 +1132,11 @@
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1083,8 +1152,11 @@
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1100,8 +1172,11 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -1117,8 +1192,11 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1134,8 +1212,11 @@
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1151,8 +1232,11 @@
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -1168,8 +1252,11 @@
       <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1185,8 +1272,11 @@
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -1202,8 +1292,11 @@
       <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -1219,8 +1312,11 @@
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -1236,8 +1332,11 @@
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1253,8 +1352,11 @@
       <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -1270,8 +1372,11 @@
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1286,6 +1391,9 @@
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9C9DC-0BF0-4393-AC5D-82E646BE5336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5F939-34AC-45F1-95E5-63A34689B3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +403,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F5ACE-7E2D-40C0-88FD-739125C9D6BE}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -792,8 +797,8 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
+      <c r="F2" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,8 +817,8 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
+      <c r="F3" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,8 +837,8 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
+      <c r="F4" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,8 +857,8 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
+      <c r="F5" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -872,8 +877,8 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
+      <c r="F6" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,8 +897,8 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
+      <c r="F7" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,8 +917,8 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
+      <c r="F8" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,8 +937,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
+      <c r="F9" s="8">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -952,8 +957,8 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
+      <c r="F10" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,8 +977,8 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
+      <c r="F11" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,8 +997,8 @@
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
+      <c r="F12" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,8 +1017,8 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
+      <c r="F13" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,8 +1037,8 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
+      <c r="F14" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,8 +1057,8 @@
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
+      <c r="F15" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,8 +1077,8 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
+      <c r="F16" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,8 +1097,8 @@
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,8 +1117,8 @@
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
+      <c r="F18" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1132,8 +1137,8 @@
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
+      <c r="F19" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,8 +1157,8 @@
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
+      <c r="F20" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,8 +1177,8 @@
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
+      <c r="F21" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,8 +1197,8 @@
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
+      <c r="F22" s="8">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,8 +1217,8 @@
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
+      <c r="F23" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,8 +1237,8 @@
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
+      <c r="F24" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1252,8 +1257,8 @@
       <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
+      <c r="F25" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,8 +1277,8 @@
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
+      <c r="F26" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,8 +1297,8 @@
       <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="4">
-        <v>1</v>
+      <c r="F27" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">

--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5F939-34AC-45F1-95E5-63A34689B3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE977466-35B9-41EA-9FE2-1A00F184D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,13 +792,13 @@
         <v>72</v>
       </c>
       <c r="D2" s="6">
-        <v>38.83</v>
+        <v>45.54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,13 +812,13 @@
         <v>73</v>
       </c>
       <c r="D3" s="6">
-        <v>37.43</v>
+        <v>40.64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,13 +832,13 @@
         <v>74</v>
       </c>
       <c r="D4" s="6">
-        <v>40.97</v>
+        <v>48.050000000000004</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,13 +852,13 @@
         <v>75</v>
       </c>
       <c r="D5" s="6">
-        <v>33.119999999999997</v>
+        <v>38.83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -872,13 +872,13 @@
         <v>76</v>
       </c>
       <c r="D6" s="6">
-        <v>36.93</v>
+        <v>40.18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -892,13 +892,13 @@
         <v>77</v>
       </c>
       <c r="D7" s="6">
-        <v>47.27</v>
+        <v>55.45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -912,13 +912,13 @@
         <v>78</v>
       </c>
       <c r="D8" s="6">
-        <v>16.7</v>
+        <v>18.38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,13 +932,13 @@
         <v>79</v>
       </c>
       <c r="D9" s="6">
-        <v>17.2</v>
+        <v>18.54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -952,13 +952,13 @@
         <v>80</v>
       </c>
       <c r="D10" s="6">
-        <v>26.810000000000002</v>
+        <v>30.060000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>81</v>
       </c>
       <c r="D11" s="6">
-        <v>16.96</v>
+        <v>18.38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -992,13 +992,13 @@
         <v>82</v>
       </c>
       <c r="D12" s="6">
-        <v>17.27</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,13 +1012,13 @@
         <v>83</v>
       </c>
       <c r="D13" s="6">
-        <v>25.37</v>
+        <v>29.75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,13 +1032,13 @@
         <v>84</v>
       </c>
       <c r="D14" s="6">
-        <v>15.4</v>
+        <v>15.57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="8">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,13 +1052,13 @@
         <v>85</v>
       </c>
       <c r="D15" s="6">
-        <v>16.8</v>
+        <v>18.21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,13 +1072,13 @@
         <v>86</v>
       </c>
       <c r="D16" s="6">
-        <v>29.7</v>
+        <v>30.060000000000002</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,13 +1092,13 @@
         <v>87</v>
       </c>
       <c r="D17" s="6">
-        <v>13.5</v>
+        <v>14.68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,13 +1112,13 @@
         <v>88</v>
       </c>
       <c r="D18" s="6">
-        <v>18.48</v>
+        <v>20.09</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1132,13 +1132,13 @@
         <v>89</v>
       </c>
       <c r="D19" s="6">
-        <v>29.48</v>
+        <v>32.04</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,13 +1152,13 @@
         <v>90</v>
       </c>
       <c r="D20" s="6">
-        <v>46.54</v>
+        <v>54.58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="8">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,13 +1172,13 @@
         <v>91</v>
       </c>
       <c r="D21" s="6">
-        <v>28.400000000000002</v>
+        <v>30.93</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,13 +1192,13 @@
         <v>92</v>
       </c>
       <c r="D22" s="6">
-        <v>31.310000000000002</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,13 +1212,13 @@
         <v>93</v>
       </c>
       <c r="D23" s="6">
-        <v>30.43</v>
+        <v>35.67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,13 +1232,13 @@
         <v>94</v>
       </c>
       <c r="D24" s="6">
-        <v>24.45</v>
+        <v>26.63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1252,13 +1252,13 @@
         <v>95</v>
       </c>
       <c r="D25" s="6">
-        <v>33.18</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,13 +1272,13 @@
         <v>96</v>
       </c>
       <c r="D26" s="6">
-        <v>48.4</v>
+        <v>51.230000000000004</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,13 +1292,13 @@
         <v>91</v>
       </c>
       <c r="D27" s="6">
-        <v>32.160000000000004</v>
+        <v>37.730000000000004</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,13 +1312,13 @@
         <v>92</v>
       </c>
       <c r="D28" s="6">
-        <v>30.150000000000002</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
+      <c r="F28" s="8">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1332,13 +1332,13 @@
         <v>93</v>
       </c>
       <c r="D29" s="6">
-        <v>60.660000000000004</v>
+        <v>71.14</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="4">
-        <v>1</v>
+      <c r="F29" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1352,13 +1352,13 @@
         <v>94</v>
       </c>
       <c r="D30" s="6">
-        <v>40.630000000000003</v>
+        <v>44.21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="4">
-        <v>1</v>
+      <c r="F30" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,13 +1372,13 @@
         <v>95</v>
       </c>
       <c r="D31" s="6">
-        <v>48.86</v>
+        <v>53.09</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
+      <c r="F31" s="8">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,13 +1392,13 @@
         <v>96</v>
       </c>
       <c r="D32" s="6">
-        <v>60.660000000000004</v>
+        <v>71.14</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
+      <c r="F32" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE977466-35B9-41EA-9FE2-1A00F184D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDF724-0ABB-4449-BDF0-B7921B1E213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
@@ -398,14 +398,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +777,7 @@
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -791,13 +791,13 @@
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>45.54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>7</v>
       </c>
     </row>
@@ -811,13 +811,13 @@
       <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>40.64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>8</v>
       </c>
     </row>
@@ -831,13 +831,13 @@
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>48.050000000000004</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>4</v>
       </c>
     </row>
@@ -851,13 +851,13 @@
       <c r="C5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>38.83</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>4</v>
       </c>
     </row>
@@ -871,13 +871,13 @@
       <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>40.18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>9</v>
       </c>
     </row>
@@ -891,13 +891,13 @@
       <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>55.45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
     </row>
@@ -911,13 +911,13 @@
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>18.38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>13</v>
       </c>
     </row>
@@ -931,13 +931,13 @@
       <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>18.54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>11</v>
       </c>
     </row>
@@ -951,13 +951,13 @@
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>30.060000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>11</v>
       </c>
     </row>
@@ -971,13 +971,13 @@
       <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>18.38</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>8</v>
       </c>
     </row>
@@ -991,13 +991,13 @@
       <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>20.260000000000002</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>10</v>
       </c>
     </row>
@@ -1011,13 +1011,13 @@
       <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <v>29.75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1031,14 +1031,14 @@
       <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>15.57</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="8">
-        <v>16</v>
+      <c r="F14" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,13 +1051,13 @@
       <c r="C15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>18.21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>15</v>
       </c>
     </row>
@@ -1071,14 +1071,14 @@
       <c r="C16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>30.060000000000002</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8">
-        <v>8</v>
+      <c r="F16" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1091,13 +1091,13 @@
       <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <v>14.68</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1111,13 +1111,13 @@
       <c r="C18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>20.09</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1131,14 +1131,14 @@
       <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>32.04</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="8">
-        <v>7</v>
+      <c r="F19" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,13 +1151,13 @@
       <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>54.58</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1171,13 +1171,13 @@
       <c r="C21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>30.93</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1191,13 +1191,13 @@
       <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>36.590000000000003</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1211,13 +1211,13 @@
       <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="8">
         <v>35.67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1231,13 +1231,13 @@
       <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>26.63</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1251,13 +1251,13 @@
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>36.130000000000003</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>13</v>
       </c>
     </row>
@@ -1271,14 +1271,14 @@
       <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="8">
         <v>51.230000000000004</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="8">
-        <v>3</v>
+      <c r="F26" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,13 +1291,13 @@
       <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="8">
         <v>37.730000000000004</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>7</v>
       </c>
     </row>
@@ -1311,13 +1311,13 @@
       <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>35.340000000000003</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>13</v>
       </c>
     </row>
@@ -1331,13 +1331,13 @@
       <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>71.14</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1351,13 +1351,13 @@
       <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>44.21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1371,13 +1371,13 @@
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="8">
         <v>53.09</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1391,14 +1391,14 @@
       <c r="C32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="6">
-        <v>71.14</v>
+      <c r="D32" s="8">
+        <v>87.05</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="8">
-        <v>2</v>
+      <c r="F32" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
